--- a/borrowerInfo.xlsx
+++ b/borrowerInfo.xlsx
@@ -78,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -110,6 +110,294 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C2" t="n" s="1">
+        <v>9.787302023685E12</v>
+      </c>
+      <c r="D2" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="n" s="2">
+        <v>44876.52118055556</v>
+      </c>
+      <c r="F2" t="n" s="2">
+        <v>44911.73244530093</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n" s="1">
+        <v>2.021304487E9</v>
+      </c>
+      <c r="C3" t="n" s="1">
+        <v>9.7873023861E12</v>
+      </c>
+      <c r="D3" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E3" t="n" s="2">
+        <v>44849.52118055556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n" s="1">
+        <v>2.02130449E9</v>
+      </c>
+      <c r="C4" t="n" s="1">
+        <v>9.78755765205E12</v>
+      </c>
+      <c r="D4" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E4" t="n" s="2">
+        <v>44904.5</v>
+      </c>
+      <c r="F4" t="n" s="2">
+        <v>44911.706901226855</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n" s="1">
+        <v>2.021304456E9</v>
+      </c>
+      <c r="C5" t="n" s="1">
+        <v>9.787030640017E12</v>
+      </c>
+      <c r="D5" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E5" t="n" s="2">
+        <v>44898.4584375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C6" t="n" s="1">
+        <v>9.787040406641E12</v>
+      </c>
+      <c r="D6" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E6" t="n" s="2">
+        <v>44906.6983912037</v>
+      </c>
+      <c r="F6" t="n" s="2">
+        <v>44911.69844934028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C7" t="n" s="1">
+        <v>9.787313209092E12</v>
+      </c>
+      <c r="D7" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="n" s="2">
+        <v>44911.73994546296</v>
+      </c>
+      <c r="F7" t="n" s="2">
+        <v>44911.75863271991</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n" s="1">
+        <v>2.021303349E9</v>
+      </c>
+      <c r="C8" t="n" s="1">
+        <v>9.787040417142E12</v>
+      </c>
+      <c r="D8" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E8" t="n" s="2">
+        <v>44907.74424768519</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n" s="1">
+        <v>2.021303398E9</v>
+      </c>
+      <c r="C9" t="n" s="1">
+        <v>9.787040417142E12</v>
+      </c>
+      <c r="D9" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="n" s="2">
+        <v>44905.76193287037</v>
+      </c>
+      <c r="F9" t="n" s="2">
+        <v>44914.991843888885</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n" s="1">
+        <v>2.022304393E9</v>
+      </c>
+      <c r="C10" t="n" s="1">
+        <v>9.787040417142E12</v>
+      </c>
+      <c r="D10" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E10" t="n" s="2">
+        <v>44881.76221064815</v>
+      </c>
+      <c r="F10" t="n" s="2">
+        <v>44914.9912278125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n" s="1">
+        <v>2.022304498E9</v>
+      </c>
+      <c r="C11" t="n" s="1">
+        <v>9.787030619716E12</v>
+      </c>
+      <c r="D11" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E11" t="n" s="2">
+        <v>44911.76281453704</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n" s="1">
+        <v>2.02230448E9</v>
+      </c>
+      <c r="C12" t="n" s="1">
+        <v>9.78711802207E12</v>
+      </c>
+      <c r="D12" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="2">
+        <v>44911.78940023148</v>
+      </c>
+      <c r="F12" t="n" s="2">
+        <v>44914.989279305555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C13" t="n" s="1">
+        <v>9.787313209092E12</v>
+      </c>
+      <c r="D13" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E13" t="n" s="2">
+        <v>44913.81238134259</v>
+      </c>
+      <c r="F13" t="n" s="2">
+        <v>44913.81262571759</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C14" t="n" s="1">
+        <v>9.787040406641E12</v>
+      </c>
+      <c r="D14" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="n" s="2">
+        <v>44914.989172685186</v>
+      </c>
+      <c r="F14" t="n" s="2">
+        <v>44914.993702789354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C15" t="n" s="1">
+        <v>9.787313209092E12</v>
+      </c>
+      <c r="D15" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E15" t="n" s="2">
+        <v>44914.99655962963</v>
+      </c>
+      <c r="F15" t="n" s="2">
+        <v>44914.99665337963</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C16" t="n" s="1">
+        <v>9.787121298752E12</v>
+      </c>
+      <c r="D16" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E16" t="n" s="2">
+        <v>44922.60336670139</v>
+      </c>
+      <c r="F16" t="n" s="2">
+        <v>44922.603709814815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
